--- a/base_datos.xlsx
+++ b/base_datos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" state="visible" r:id="rId1"/>
@@ -597,10 +597,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -729,12 +729,12 @@
       <c r="F5" s="16" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>Diego Giosue</t>
+      <c r="A6" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>Mauricio (Giosue)</t>
         </is>
       </c>
       <c r="C6" s="9" t="n"/>
@@ -743,20 +743,20 @@
           <t>Rio Cuarto</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>358-4251885</t>
-        </is>
-      </c>
-      <c r="F6" s="13" t="n"/>
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t>358-4168069</t>
+        </is>
+      </c>
+      <c r="F6" s="16" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="inlineStr">
-        <is>
-          <t>Mauricio (Giosue)</t>
+      <c r="A7" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>Gisela Ponzio</t>
         </is>
       </c>
       <c r="C7" s="9" t="n"/>
@@ -765,43 +765,14 @@
           <t>Rio Cuarto</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
-        <is>
-          <t>358-4168069</t>
-        </is>
-      </c>
-      <c r="F7" s="16" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>Gisela Ponzio</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="E8" s="12" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>358-6546525</t>
         </is>
       </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>giseponzio@gmail.com</t>
-        </is>
-      </c>
+      <c r="F7" s="13" t="n"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -814,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,6 +1619,29 @@
         <v>500</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Leandro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PINOL EN PRESENTACION IND 1L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GC insumos</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39.825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/base_datos.xlsx
+++ b/base_datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRISTIAN\Mios\cotizador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRISTIAN\Mios\mi cotizador\Cotizador-recibos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD46C156-3771-4F08-89BF-2F126AF1D570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9565EE-1FB7-45D6-9F17-A752E0C76CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>P  Compra</t>
-  </si>
-  <si>
-    <t>Utilidad</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>EXEL DEL NORTE</t>
   </si>
   <si>
-    <t>DETERGENTE  DE POLVO MARCA ACE EN PRESENTACIÓN INDIVIDUAL DE 500G</t>
-  </si>
-  <si>
     <t>LIMPIADOR LÍQUIDO FABULOSO EN PRESENTACIÓN DE  1L</t>
   </si>
   <si>
@@ -118,12 +109,6 @@
     <t>DESINFECTANTE CLORALEX REGULAR PRESENTACIÓN DE 950 ML</t>
   </si>
   <si>
-    <t>ESCOBA DE PLÁSTICO CON MANGO MADERA MARCA GLADIADOR</t>
-  </si>
-  <si>
-    <t>CUBETAS DE PLÁSTICO CON ASA Y TAPA CON CAPACIDAD DE 20L</t>
-  </si>
-  <si>
     <t>SUAVIZANTE DE ROPA DOWNY PRESENTACIÓN DE 800 ML</t>
   </si>
   <si>
@@ -167,6 +152,72 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Inicialización de equipo nuevo (programas básicos)</t>
+  </si>
+  <si>
+    <t>Inicialización de equipo nuevo (programas básicos y Windows)</t>
+  </si>
+  <si>
+    <t>Formateo + Instalación de prog. básicos + Backup hasta 100Gb</t>
+  </si>
+  <si>
+    <t>Backup de datos: cada 250Gb extras</t>
+  </si>
+  <si>
+    <t>Backup en más de una unidad (Ej. en el equipo y un disco externo)</t>
+  </si>
+  <si>
+    <t>Mantenimiento y limpieza de virus y optimización</t>
+  </si>
+  <si>
+    <t>Un solo programa</t>
+  </si>
+  <si>
+    <t>Pack por tres programas</t>
+  </si>
+  <si>
+    <t>Por cada programa extra al pack</t>
+  </si>
+  <si>
+    <t>Armado de Pc común (solo armado)</t>
+  </si>
+  <si>
+    <t>Armado de Pc Gamer (solo armado)</t>
+  </si>
+  <si>
+    <t>Mantenimiento de hardware notebook</t>
+  </si>
+  <si>
+    <t>Mantenimiento de hardware Pc común</t>
+  </si>
+  <si>
+    <t>Mantenimiento de hardware Pc Gamer</t>
+  </si>
+  <si>
+    <t>Instalación de hardware notebook</t>
+  </si>
+  <si>
+    <t>Instalación de hardware Pc común</t>
+  </si>
+  <si>
+    <t>Instalación de hardware Pc Gamer</t>
+  </si>
+  <si>
+    <t>Reparación de bisagras de notebook</t>
+  </si>
+  <si>
+    <t>Reparación de pin de carga o botones notebook</t>
+  </si>
+  <si>
+    <t>Cambio de teclado de notebook</t>
+  </si>
+  <si>
+    <t>Cambio de teclado de notebook (Equipos complejos)</t>
+  </si>
+  <si>
+    <t>Cambio de pantalla de notebook</t>
   </si>
 </sst>
 </file>
@@ -176,14 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,17 +252,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,31 +325,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,19 +365,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,126 +724,126 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,21 +852,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="27" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="27" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -838,403 +879,388 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>99</v>
       </c>
-      <c r="E2">
-        <v>250</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19">
-        <f t="shared" ref="G2:G17" si="0">(E2*F2)+E2</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="16">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>99</v>
       </c>
-      <c r="E3">
-        <v>20.14</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G3" s="19">
-        <f t="shared" si="0"/>
-        <v>27.189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="16">
+        <v>40650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>99</v>
       </c>
-      <c r="E4">
-        <v>21.95</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G4" s="19">
-        <f t="shared" si="0"/>
-        <v>29.6325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="16">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
+      <c r="B5" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>99</v>
       </c>
-      <c r="E5">
-        <v>29.5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="19">
-        <f t="shared" si="0"/>
-        <v>39.825000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="16">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
+      <c r="B6" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
-      <c r="E6">
-        <v>11.53</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G6" s="19">
-        <f t="shared" si="0"/>
-        <v>15.5655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="16">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>99</v>
       </c>
-      <c r="E7">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G7" s="19">
-        <f t="shared" si="0"/>
-        <v>60.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>99</v>
-      </c>
-      <c r="E8">
-        <v>99.9</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G8" s="19">
-        <f t="shared" si="0"/>
-        <v>134.86500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14">
+        <v>99</v>
+      </c>
+      <c r="E8" s="16">
+        <v>15500</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>99</v>
-      </c>
-      <c r="E9">
-        <v>21.32</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G9" s="19">
-        <f t="shared" si="0"/>
-        <v>28.782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14">
+        <v>99</v>
+      </c>
+      <c r="E9" s="16">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <v>250</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="14">
+        <v>99</v>
+      </c>
+      <c r="E10" s="16">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>99</v>
-      </c>
-      <c r="E11">
-        <v>20.14</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G11" s="19">
-        <f t="shared" si="0"/>
-        <v>27.189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14">
+        <v>99</v>
+      </c>
+      <c r="E11" s="16">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>99</v>
-      </c>
-      <c r="E12">
-        <v>21.95</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G12" s="19">
-        <f t="shared" si="0"/>
-        <v>29.6325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14">
+        <v>99</v>
+      </c>
+      <c r="E12" s="16">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <v>29.5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G13" s="19">
-        <f t="shared" si="0"/>
-        <v>39.825000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="14">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>99</v>
-      </c>
-      <c r="E14">
-        <v>11.53</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G14" s="19">
-        <f t="shared" si="0"/>
-        <v>15.5655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14">
+        <v>99</v>
+      </c>
+      <c r="E14" s="16">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>99</v>
-      </c>
-      <c r="E15">
-        <v>45</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G15" s="19">
-        <f t="shared" si="0"/>
-        <v>60.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="14">
+        <v>99</v>
+      </c>
+      <c r="E15" s="16">
+        <v>73700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>99</v>
-      </c>
-      <c r="E16">
-        <v>99.9</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G16" s="19">
-        <f t="shared" si="0"/>
-        <v>134.86500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14">
+        <v>99</v>
+      </c>
+      <c r="E16" s="16">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>99</v>
-      </c>
-      <c r="E17">
-        <v>21.32</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="G17" s="19">
-        <f t="shared" si="0"/>
-        <v>28.782</v>
+      <c r="B17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="14">
+        <v>99</v>
+      </c>
+      <c r="E17" s="16">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="14">
+        <v>99</v>
+      </c>
+      <c r="E18" s="16">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14">
+        <v>99</v>
+      </c>
+      <c r="E19" s="16">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="14">
+        <v>99</v>
+      </c>
+      <c r="E20" s="16">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="14">
+        <v>99</v>
+      </c>
+      <c r="E21" s="16">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="14">
+        <v>99</v>
+      </c>
+      <c r="E22" s="16">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14">
+        <v>99</v>
+      </c>
+      <c r="E23" s="16">
+        <v>37700</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>LISTA_PROVEE</formula1>
     </dataValidation>
   </dataValidations>
@@ -1247,17 +1273,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1277,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,19 +1311,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>3586546525</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,19 +1331,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>3584268768</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1326,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1339,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1352,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1378,20 +1404,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>45</v>
+      <c r="D1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,10 +1425,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1416,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1433,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1450,10 +1476,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1467,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1484,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/base_datos.xlsx
+++ b/base_datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRISTIAN\Mios\mi cotizador\Cotizador-recibos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRISTIAN\Mios\mi cotizador\Cotizador-recibos - copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9565EE-1FB7-45D6-9F17-A752E0C76CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BD3646-D914-4274-97EF-628B65E57E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -218,6 +218,42 @@
   </si>
   <si>
     <t>Cambio de pantalla de notebook</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>notebook Lenovo v130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpu escritorio </t>
+  </si>
+  <si>
+    <t>notebook bangho</t>
+  </si>
+  <si>
+    <t>cpu caja 1</t>
+  </si>
+  <si>
+    <t>notebook dell inspiron</t>
+  </si>
+  <si>
+    <t>santiago del estero 1450</t>
+  </si>
+  <si>
+    <t>villa dalcar</t>
+  </si>
+  <si>
+    <t>dinkeldein 1278</t>
+  </si>
+  <si>
+    <t>banda norte</t>
+  </si>
+  <si>
+    <t>quenon 476</t>
+  </si>
+  <si>
+    <t>calle sin numero</t>
   </si>
 </sst>
 </file>
@@ -718,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +783,9 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -756,14 +794,18 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -772,14 +814,18 @@
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -788,14 +834,18 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -804,14 +854,18 @@
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -820,14 +874,18 @@
       <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -836,14 +894,18 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -854,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/base_datos.xlsx
+++ b/base_datos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRISTIAN\Mios\mi cotizador\Cotizador-recibos - copia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Proyectos\Cotizador\Cotizador-recibos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BD3646-D914-4274-97EF-628B65E57E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -20,16 +19,18 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="LISTA_PROVEE">[1]!PROVEEDORES[NOMBRE]</definedName>
+    <definedName name="LISTA_MEDIDAS">[1]!MEDIDAS[MEDIDAS]</definedName>
+    <definedName name="LISTA_PROVEE">[2]!PROVEEDORES[NOMBRE]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -94,24 +95,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>INSTALACIONES PROVISIONALES</t>
-  </si>
-  <si>
-    <t>EXEL DEL NORTE</t>
-  </si>
-  <si>
-    <t>LIMPIADOR LÍQUIDO FABULOSO EN PRESENTACIÓN DE  1L</t>
-  </si>
-  <si>
-    <t>PINOL EN PRESENTACION IND 1L</t>
-  </si>
-  <si>
-    <t>DESINFECTANTE CLORALEX REGULAR PRESENTACIÓN DE 950 ML</t>
-  </si>
-  <si>
-    <t>SUAVIZANTE DE ROPA DOWNY PRESENTACIÓN DE 800 ML</t>
-  </si>
-  <si>
     <t>Ciudad</t>
   </si>
   <si>
@@ -254,16 +237,78 @@
   </si>
   <si>
     <t>calle sin numero</t>
+  </si>
+  <si>
+    <t>cambio de pila bios CR2032</t>
+  </si>
+  <si>
+    <t>GCINSUMOS venta acces.</t>
+  </si>
+  <si>
+    <t>Hdd  250gb (u)</t>
+  </si>
+  <si>
+    <t>Hdd 1tb (u)</t>
+  </si>
+  <si>
+    <t>unidad ssd  240gb (u)</t>
+  </si>
+  <si>
+    <t>unidad ssd  120gb (u)</t>
+  </si>
+  <si>
+    <t>Recuperación de sectores de HDD</t>
+  </si>
+  <si>
+    <t>GCINSUMOS serv tecnico</t>
+  </si>
+  <si>
+    <t>Reconfiguración de hardware Pc común</t>
+  </si>
+  <si>
+    <t>memoria ddr3 2gb</t>
+  </si>
+  <si>
+    <t>memoria ddr3 4gb</t>
+  </si>
+  <si>
+    <t>reparacion hardware de laptop</t>
+  </si>
+  <si>
+    <t>Caddy Disk Adaptador Notebook 2do Disco Sata</t>
+  </si>
+  <si>
+    <t>placade video pci gforce 610</t>
+  </si>
+  <si>
+    <t>instalacion de office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuente alimentacion pc </t>
+  </si>
+  <si>
+    <t>Leonardo Lujan</t>
+  </si>
+  <si>
+    <t>Pje Reconquista 179</t>
+  </si>
+  <si>
+    <t>samsung np300E5A</t>
+  </si>
+  <si>
+    <t>358-6008793</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +346,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -322,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -360,12 +419,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,10 +495,40 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,6 +544,35 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PRINCIPAL"/>
+      <sheetName val="CONFIG"/>
+      <sheetName val="CLIENTES"/>
+      <sheetName val="PROVEEDORES"/>
+      <sheetName val="PRODUCTOS"/>
+      <sheetName val="Hoja1"/>
+      <sheetName val="COTIZACION"/>
+      <sheetName val="RECIBO"/>
+      <sheetName val="GCinsumos cotizador 1.3xlsm"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -751,11 +895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
@@ -804,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>6</v>
@@ -824,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -844,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -864,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>6</v>
@@ -884,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,7 +1039,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
@@ -904,8 +1048,34 @@
         <v>17</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -913,23 +1083,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="27" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -946,14 +1118,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D2">
         <v>99</v>
@@ -963,14 +1135,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D3">
         <v>99</v>
@@ -980,31 +1152,31 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D4">
         <v>99</v>
       </c>
       <c r="E4" s="16">
-        <v>48000</v>
+        <v>39690</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D5">
         <v>99</v>
@@ -1014,14 +1186,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D6">
         <v>99</v>
@@ -1031,14 +1203,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D7">
         <v>99</v>
@@ -1048,14 +1220,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="14">
         <v>99</v>
@@ -1066,14 +1238,14 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="14">
         <v>99</v>
@@ -1083,14 +1255,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="14">
         <v>99</v>
@@ -1100,14 +1272,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="14">
         <v>99</v>
@@ -1117,14 +1289,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="14">
         <v>99</v>
@@ -1134,14 +1306,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="14">
         <v>99</v>
@@ -1151,14 +1323,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="14">
         <v>99</v>
@@ -1168,14 +1340,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="14">
         <v>99</v>
@@ -1185,14 +1357,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="14">
         <v>99</v>
@@ -1201,15 +1373,15 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D17" s="14">
         <v>99</v>
@@ -1218,15 +1390,15 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>22</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D18" s="14">
         <v>99</v>
@@ -1235,15 +1407,15 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D19" s="14">
         <v>99</v>
@@ -1252,15 +1424,15 @@
         <v>62400</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>22</v>
+        <v>53</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="14">
         <v>99</v>
@@ -1269,15 +1441,15 @@
         <v>62400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D21" s="14">
         <v>99</v>
@@ -1286,15 +1458,15 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D22" s="14">
         <v>99</v>
@@ -1303,15 +1475,15 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D23" s="14">
         <v>99</v>
@@ -1320,22 +1492,289 @@
         <v>37700</v>
       </c>
     </row>
+    <row r="24" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>53</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="14">
+        <v>99</v>
+      </c>
+      <c r="E24" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>54</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="14">
+        <v>99</v>
+      </c>
+      <c r="E25" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>57</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="14">
+        <v>99</v>
+      </c>
+      <c r="E26" s="16">
+        <v>65000</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>55</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="14">
+        <v>99</v>
+      </c>
+      <c r="E27" s="16">
+        <v>30000</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>56</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="14">
+        <v>99</v>
+      </c>
+      <c r="E28" s="16">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>59</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="14">
+        <v>99</v>
+      </c>
+      <c r="E29" s="16">
+        <v>21000</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>58</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="14">
+        <v>99</v>
+      </c>
+      <c r="E30" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>60</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="14">
+        <v>99</v>
+      </c>
+      <c r="E31" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>60</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="14">
+        <v>99</v>
+      </c>
+      <c r="E32" s="16">
+        <v>28000</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>61</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="14">
+        <v>99</v>
+      </c>
+      <c r="E33" s="16">
+        <v>22200</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>62</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="14">
+        <v>99</v>
+      </c>
+      <c r="E34" s="16">
+        <v>11000</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>63</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="14">
+        <v>99</v>
+      </c>
+      <c r="E35" s="16">
+        <v>45000</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>65</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="14">
+        <v>99</v>
+      </c>
+      <c r="E36" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>66</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="14">
+        <v>99</v>
+      </c>
+      <c r="E37" s="16">
+        <v>11000</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="20"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C37">
       <formula1>LISTA_PROVEE</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1365,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1373,19 +1812,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>3586546525</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1393,19 +1832,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3">
         <v>3584268768</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1414,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1427,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1440,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1450,138 +1889,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>15.5655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>29.6325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>28.782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>39.825000000000003</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/base_datos.xlsx
+++ b/base_datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRISTIAN\Mios\mi cotizador\Cotizador-recibos - copia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siste\OneDrive\Escritorio\Nueva carpeta (3)\Cotizador-recibos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13624EB-0670-4A35-801E-2016D45904EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF365E-896B-4717-A15C-E7EC8E9D371C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -99,9 +99,6 @@
     <t>358-6020639</t>
   </si>
   <si>
-    <t>cpu caja 1</t>
-  </si>
-  <si>
     <t>Mauricio (Giosue)</t>
   </si>
   <si>
@@ -225,12 +222,6 @@
     <t>Hdd 1tb (u)</t>
   </si>
   <si>
-    <t>unidad ssd  240gb (u)</t>
-  </si>
-  <si>
-    <t>unidad ssd  120gb (u)</t>
-  </si>
-  <si>
     <t>Recuperación de sectores de HDD</t>
   </si>
   <si>
@@ -307,6 +298,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>unidad ssd  240gb verico</t>
+  </si>
+  <si>
+    <t>unidad ssd  120gb verico</t>
+  </si>
+  <si>
+    <t>unidad ssd  480gb verico</t>
   </si>
 </sst>
 </file>
@@ -847,11 +847,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
@@ -949,28 +956,26 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,19 +983,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -998,19 +1003,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,13 +1049,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>99</v>
@@ -1075,10 +1080,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>99</v>
@@ -1092,16 +1097,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>99</v>
       </c>
       <c r="E4" s="14">
-        <v>39690</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>99</v>
@@ -1126,10 +1131,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>99</v>
@@ -1143,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>99</v>
@@ -1160,10 +1165,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>99</v>
@@ -1178,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>99</v>
@@ -1195,10 +1200,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>99</v>
@@ -1212,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>99</v>
@@ -1229,10 +1234,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>99</v>
@@ -1246,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>99</v>
@@ -1263,16 +1268,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>99</v>
       </c>
       <c r="E14" s="14">
-        <v>27000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,10 +1285,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>99</v>
@@ -1297,10 +1302,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>99</v>
@@ -1314,10 +1319,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>99</v>
@@ -1331,10 +1336,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>99</v>
@@ -1348,10 +1353,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>99</v>
@@ -1365,10 +1370,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>99</v>
@@ -1382,10 +1387,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>99</v>
@@ -1399,10 +1404,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>99</v>
@@ -1416,10 +1421,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>99</v>
@@ -1433,10 +1438,10 @@
         <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>99</v>
@@ -1452,10 +1457,10 @@
         <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>99</v>
@@ -1471,10 +1476,10 @@
         <v>57</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>99</v>
@@ -1490,10 +1495,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
+        <v>89</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D27">
         <v>99</v>
@@ -1504,72 +1509,72 @@
       <c r="F27" s="15"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="D28" s="9">
         <v>99</v>
       </c>
       <c r="E28" s="14">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>99</v>
       </c>
       <c r="E29" s="14">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>58</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>99</v>
       </c>
       <c r="E30" s="14">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>99</v>
@@ -1585,118 +1590,137 @@
         <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>99</v>
       </c>
       <c r="E32" s="14">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <v>99</v>
       </c>
       <c r="E33" s="14">
-        <v>22200</v>
+        <v>28000</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>62</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>99</v>
       </c>
       <c r="E34" s="14">
-        <v>11000</v>
+        <v>22200</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>63</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>99</v>
       </c>
       <c r="E35" s="14">
-        <v>45000</v>
+        <v>11000</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D36">
         <v>99</v>
       </c>
       <c r="E36" s="14">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>99</v>
       </c>
       <c r="E37" s="14">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="10"/>
     </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>66</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>99</v>
+      </c>
+      <c r="E38" s="14">
+        <v>11000</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C37" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>LISTA_PROVEE</formula1>
     </dataValidation>
   </dataValidations>
@@ -1731,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,19 +1772,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1">
         <v>3586546525</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1768,19 +1792,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3">
         <v>3584268768</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1789,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1802,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1815,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1847,19 +1871,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/base_datos.xlsx
+++ b/base_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siste\OneDrive\Escritorio\Nueva carpeta (3)\Cotizador-recibos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF365E-896B-4717-A15C-E7EC8E9D371C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DEBE63-86A6-436C-B898-CD6877D608F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Mantenimiento de hardware Pc Gamer</t>
   </si>
   <si>
-    <t>Instalación de hardware notebook</t>
-  </si>
-  <si>
     <t>Instalación de hardware Pc común</t>
   </si>
   <si>
@@ -307,6 +304,18 @@
   </si>
   <si>
     <t>unidad ssd  480gb verico</t>
+  </si>
+  <si>
+    <t>Ipem 91 Rita Arguello</t>
+  </si>
+  <si>
+    <t>Coronel Baigorria</t>
+  </si>
+  <si>
+    <t>Instalación de hardware notebook/netbook</t>
+  </si>
+  <si>
+    <t>Mantenimiento de hardware netbook</t>
   </si>
 </sst>
 </file>
@@ -845,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1027,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1025,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,6 +1179,9 @@
       <c r="E7" s="14">
         <v>32800</v>
       </c>
+      <c r="F7" s="9">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1302,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1319,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1336,7 +1359,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -1353,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -1370,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1387,7 +1410,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -1404,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -1421,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1438,7 +1461,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1457,7 +1480,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -1476,7 +1499,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -1495,7 +1518,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>38</v>
@@ -1514,7 +1537,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1533,7 +1556,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -1552,10 +1575,10 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
       </c>
       <c r="D30">
         <v>99</v>
@@ -1571,10 +1594,10 @@
         <v>58</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31">
         <v>99</v>
@@ -1590,7 +1613,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
@@ -1609,7 +1632,7 @@
         <v>60</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
@@ -1628,10 +1651,10 @@
         <v>61</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34">
         <v>99</v>
@@ -1647,7 +1670,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -1666,7 +1689,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -1685,10 +1708,10 @@
         <v>65</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>99</v>
@@ -1704,7 +1727,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -1718,9 +1741,26 @@
       <c r="F38" s="15"/>
       <c r="G38" s="10"/>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>67</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39">
+        <v>99</v>
+      </c>
+      <c r="E39" s="14">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C39" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>LISTA_PROVEE</formula1>
     </dataValidation>
   </dataValidations>
@@ -1755,16 +1795,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,19 +1812,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1">
         <v>3586546525</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,19 +1832,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3">
         <v>3584268768</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1813,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1826,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1839,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1871,19 +1911,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
